--- a/Project - Basic_calculator/Basic calculator.xlsx
+++ b/Project - Basic_calculator/Basic calculator.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\intelFPGA_lite\18.1\Digital-Clock\Project - Basic_calculator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F32CE348-A156-4674-8888-BA1718E1A7AE}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{576FD536-6EA5-4024-8C28-1368BB56DE46}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" activeTab="1" xr2:uid="{E96232D1-EBEC-446B-8C68-089EF9F142DF}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" xr2:uid="{E96232D1-EBEC-446B-8C68-089EF9F142DF}"/>
   </bookViews>
   <sheets>
     <sheet name="switch" sheetId="1" r:id="rId1"/>
@@ -529,16 +529,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>553024</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>93196</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>104488</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>610297</xdr:colOff>
+      <xdr:rowOff>97919</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>150469</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>164020</xdr:rowOff>
+      <xdr:rowOff>157451</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -553,7 +553,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7273076" y="3342988"/>
+          <a:off x="7424162" y="3336419"/>
           <a:ext cx="1890014" cy="1012032"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
@@ -1553,15 +1553,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>233363</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>47626</xdr:rowOff>
+      <xdr:colOff>423863</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1576,8 +1576,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="209550" y="2914650"/>
-          <a:ext cx="2019300" cy="752476"/>
+          <a:off x="233363" y="5986462"/>
+          <a:ext cx="2047875" cy="752475"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1620,13 +1620,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>57151</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1692,7 +1692,7 @@
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>13607</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2029,13 +2029,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2085,13 +2085,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2141,14 +2141,14 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>76189</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>76189</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2163,8 +2163,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6591300" y="885825"/>
-          <a:ext cx="2400300" cy="0"/>
+          <a:off x="6686550" y="5981689"/>
+          <a:ext cx="6153150" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2203,7 +2203,7 @@
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>217714</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2260,13 +2260,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>137432</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>446375</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>62948</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2343,13 +2343,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2406,13 +2406,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>35379</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2461,13 +2461,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2517,13 +2517,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>78240</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>100013</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2596,13 +2596,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>116340</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>97</xdr:row>
       <xdr:rowOff>128588</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2675,13 +2675,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>283029</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>151039</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>589250</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>80637</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2758,13 +2758,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>81643</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>122465</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>272143</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>122465</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2814,13 +2814,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>383722</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>138794</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>244929</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>138794</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2870,13 +2870,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>178253</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>361949</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>181741</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2930,13 +2930,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>85724</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>419099</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>89212</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2990,13 +2990,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>68036</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>585107</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>54429</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3056,13 +3056,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>585107</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>68036</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>340178</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>68036</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3112,14 +3112,14 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>108857</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>90</xdr:row>
-      <xdr:rowOff>13607</xdr:rowOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>173182</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3134,8 +3134,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3337832" y="10205357"/>
-          <a:ext cx="0" cy="4095750"/>
+          <a:off x="3306907" y="13062857"/>
+          <a:ext cx="0" cy="9017825"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -3167,13 +3167,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>258536</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>179615</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>410935</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>179615</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3223,13 +3223,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>95251</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>81643</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>149679</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>81643</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3278,13 +3278,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>27215</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>84365</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3333,13 +3333,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>112940</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>112940</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>136071</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3388,13 +3388,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>61233</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>27214</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>61233</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>179614</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3443,13 +3443,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>63954</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>62593</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>62593</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3498,15 +3498,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>18</xdr:col>
+      <xdr:colOff>122463</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>6803</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>217713</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>149678</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>312963</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>126547</xdr:rowOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>174172</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3521,8 +3521,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11239499" y="340178"/>
-          <a:ext cx="1319893" cy="548369"/>
+          <a:off x="11266713" y="5340803"/>
+          <a:ext cx="1333500" cy="548369"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3565,13 +3565,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>78922</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>492578</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>78922</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3619,15 +3619,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>46</xdr:col>
+      <xdr:col>53</xdr:col>
       <xdr:colOff>214311</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>119062</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>51</xdr:col>
+      <xdr:col>58</xdr:col>
       <xdr:colOff>95249</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>156811</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -3643,7 +3643,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="28694061" y="6977062"/>
+          <a:off x="33027936" y="7739062"/>
           <a:ext cx="2976563" cy="6705249"/>
           <a:chOff x="13616980" y="1802130"/>
           <a:chExt cx="1059180" cy="2446020"/>
@@ -3789,16 +3789,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>312964</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>13607</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>312964</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>163286</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>312970</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>312970</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3813,8 +3813,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10722428" y="2299607"/>
-          <a:ext cx="0" cy="1483179"/>
+          <a:off x="8980720" y="595312"/>
+          <a:ext cx="0" cy="5381625"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -3844,16 +3844,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>272143</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>27214</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>43</xdr:col>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>309562</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>3414</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>50</xdr:col>
       <xdr:colOff>329293</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>27214</xdr:rowOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>3414</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3868,8 +3868,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10681607" y="2313214"/>
-          <a:ext cx="8629650" cy="0"/>
+          <a:off x="8977312" y="574914"/>
+          <a:ext cx="17974356" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -3899,15 +3899,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>43</xdr:col>
+      <xdr:col>50</xdr:col>
       <xdr:colOff>299357</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>27215</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>43</xdr:col>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>50</xdr:col>
       <xdr:colOff>299357</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>51955</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3923,8 +3923,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="19089584" y="2313215"/>
-          <a:ext cx="0" cy="6692240"/>
+          <a:off x="26921732" y="571500"/>
+          <a:ext cx="0" cy="8433955"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -3954,15 +3954,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>43</xdr:col>
+      <xdr:col>50</xdr:col>
       <xdr:colOff>311728</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>71871</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>47</xdr:col>
+      <xdr:col>54</xdr:col>
       <xdr:colOff>222168</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>71871</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4010,15 +4010,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>43</xdr:col>
+      <xdr:col>50</xdr:col>
       <xdr:colOff>273628</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>172317</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>47</xdr:col>
+      <xdr:col>54</xdr:col>
       <xdr:colOff>184068</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>172317</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4066,15 +4066,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>42</xdr:col>
+      <xdr:col>49</xdr:col>
       <xdr:colOff>69271</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>184314</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>43</xdr:col>
+      <xdr:col>50</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>161183</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4132,15 +4132,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>43</xdr:col>
+      <xdr:col>50</xdr:col>
       <xdr:colOff>207819</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>86591</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>47</xdr:col>
+      <xdr:col>54</xdr:col>
       <xdr:colOff>169719</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>86591</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4188,15 +4188,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>33</xdr:col>
+      <xdr:col>39</xdr:col>
       <xdr:colOff>277090</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>51954</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>39</xdr:col>
+      <xdr:col>45</xdr:col>
       <xdr:colOff>535802</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>147204</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4258,13 +4258,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>138546</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>173182</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>259772</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>173182</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4280,8 +4280,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9230591" y="15603682"/>
-          <a:ext cx="1939636" cy="0"/>
+          <a:off x="9282546" y="16365682"/>
+          <a:ext cx="11062854" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -4313,13 +4313,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>225135</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>121227</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>225135</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>23503</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4368,13 +4368,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>259772</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>165513</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>511133</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>165513</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4428,7 +4428,7 @@
       <xdr:rowOff>86591</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
+      <xdr:col>39</xdr:col>
       <xdr:colOff>329045</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>86591</xdr:rowOff>
@@ -4484,7 +4484,7 @@
       <xdr:rowOff>51955</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
+      <xdr:col>39</xdr:col>
       <xdr:colOff>329045</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>51955</xdr:rowOff>
@@ -4535,77 +4535,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>57</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>63</xdr:col>
-      <xdr:colOff>601612</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="91" name="Rectangle 90">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{830B155C-0B67-4629-81E4-6D285C241480}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="35623500" y="9334500"/>
-          <a:ext cx="3982987" cy="6572250"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-MY" sz="2800"/>
-            <a:t>digit_separator</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>50</xdr:col>
       <xdr:colOff>166687</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>57</xdr:col>
+      <xdr:col>64</xdr:col>
       <xdr:colOff>404812</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4653,15 +4590,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>42</xdr:col>
+      <xdr:col>49</xdr:col>
       <xdr:colOff>547687</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>139473</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>46</xdr:col>
+      <xdr:col>53</xdr:col>
       <xdr:colOff>513669</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>125866</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4721,13 +4658,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>47</xdr:col>
+      <xdr:col>54</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>50346</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -4743,8 +4680,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="12096750" y="7048500"/>
-          <a:ext cx="17145000" cy="4431846"/>
+          <a:off x="12096750" y="7810500"/>
+          <a:ext cx="21478875" cy="4431846"/>
           <a:chOff x="12096750" y="7048500"/>
           <a:chExt cx="17145000" cy="4431846"/>
         </a:xfrm>
@@ -4762,7 +4699,7 @@
         </xdr:nvCxnSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="25384125" y="7048500"/>
+            <a:off x="25878316" y="7048500"/>
             <a:ext cx="0" cy="4422321"/>
           </a:xfrm>
           <a:prstGeom prst="line">
@@ -4802,7 +4739,7 @@
         </xdr:nvCxnSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="24669750" y="7106331"/>
+            <a:off x="25182956" y="7106331"/>
             <a:ext cx="714375" cy="0"/>
           </a:xfrm>
           <a:prstGeom prst="line">
@@ -4842,8 +4779,8 @@
         </xdr:nvCxnSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="25407937" y="11453812"/>
-            <a:ext cx="3833813" cy="0"/>
+            <a:off x="12134766" y="11453812"/>
+            <a:ext cx="17106984" cy="0"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
             <a:avLst/>
@@ -4853,46 +4790,6 @@
               <a:srgbClr val="FF00FF"/>
             </a:solidFill>
             <a:tailEnd type="triangle"/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="100" name="Straight Connector 99">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71AF3817-187A-4F82-9B58-972E81CA9369}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvCxnSpPr/>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="12120562" y="11430000"/>
-            <a:ext cx="13225463" cy="0"/>
-          </a:xfrm>
-          <a:prstGeom prst="line">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln w="76200">
-            <a:solidFill>
-              <a:srgbClr val="FF00FF"/>
-            </a:solidFill>
           </a:ln>
         </xdr:spPr>
         <xdr:style>
@@ -4964,7 +4861,7 @@
         <xdr:spPr>
           <a:xfrm>
             <a:off x="12096750" y="10142950"/>
-            <a:ext cx="848838" cy="0"/>
+            <a:ext cx="665271" cy="0"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
             <a:avLst/>
@@ -4996,73 +4893,1185 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>73</xdr:col>
-      <xdr:colOff>114303</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>19792</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>75</xdr:col>
-      <xdr:colOff>481573</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:col>64</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>57892</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>82</xdr:col>
+      <xdr:colOff>568165</xdr:colOff>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>143617</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="171" name="Group 170">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A6991BF-DD02-40BA-B0DC-B560B57DDC4A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="39995475" y="4248892"/>
+          <a:ext cx="11340940" cy="7896225"/>
+          <a:chOff x="39347775" y="9354292"/>
+          <a:chExt cx="11169490" cy="7896225"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="91" name="Rectangle 90">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{830B155C-0B67-4629-81E4-6D285C241480}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="39347775" y="10096500"/>
+            <a:ext cx="3925837" cy="6572250"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-MY" sz="2800"/>
+              <a:t>digit_separator</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="108" name="Rectangle 107">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{609720CA-5FE9-4FE0-AD82-C15D4081D997}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="48882303" y="9354292"/>
+            <a:ext cx="1586470" cy="2790825"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-MY" sz="2800"/>
+              <a:t>7</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-MY" sz="2800" baseline="0"/>
+              <a:t> segment </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-MY" sz="2800"/>
+              <a:t>digit</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="109" name="Connector: Elbow 108">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BF0AFB5-19E6-403E-A9EB-AD78B97B3D52}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:endCxn id="108" idx="1"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="43298918" y="10749705"/>
+            <a:ext cx="5583385" cy="12700"/>
+          </a:xfrm>
+          <a:prstGeom prst="bentConnector3">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 50000"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:ln w="76200">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="111" name="Rectangle 110">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2619EDF5-AC71-46FA-BC45-3C5509C06714}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="48930795" y="14459692"/>
+            <a:ext cx="1586470" cy="2790825"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-MY" sz="2800"/>
+              <a:t>7</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-MY" sz="2800" baseline="0"/>
+              <a:t> segment </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-MY" sz="2800"/>
+              <a:t>digit</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="113" name="Oval 112">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F7AF56B-3893-49D0-84CB-9EFCD572ED2A}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="49464191" y="12607636"/>
+            <a:ext cx="363682" cy="363682"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-MY" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="114" name="Oval 113">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB114DEC-FA6B-48DF-9FC4-DE84AE8871F7}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="49460728" y="13158354"/>
+            <a:ext cx="363682" cy="363682"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-MY" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="115" name="Oval 114">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7764723-0A56-4E91-B041-FAFE8F46559F}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="49439946" y="13674436"/>
+            <a:ext cx="363682" cy="363682"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-MY" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="116" name="TextBox 115">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7399FD0F-1192-4676-A15A-196584DF8CBA}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="43541374" y="10269682"/>
+            <a:ext cx="1603663" cy="548369"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-MY" sz="2400" baseline="0"/>
+              <a:t>digit_pos</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-MY" sz="2400"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="117" name="Connector: Elbow 116">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19835408-7DE6-4BCB-8A4E-F6414E9F866E}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="43240035" y="12374151"/>
+            <a:ext cx="5586849" cy="12700"/>
+          </a:xfrm>
+          <a:prstGeom prst="bentConnector3">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 50000"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:ln w="76200">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="118" name="Connector: Elbow 117">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DB6CAE0-FE5E-4C18-B406-2609B9A773D8}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="43295455" y="13188103"/>
+            <a:ext cx="5583385" cy="12700"/>
+          </a:xfrm>
+          <a:prstGeom prst="bentConnector3">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 50000"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:ln w="76200">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="119" name="Connector: Elbow 118">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E55D318-2CC9-46B7-8945-B04FFDE2CD23}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="43271209" y="13877369"/>
+            <a:ext cx="5586849" cy="12700"/>
+          </a:xfrm>
+          <a:prstGeom prst="bentConnector3">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 50000"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:ln w="76200">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="120" name="Connector: Elbow 119">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E5666D9-87BE-4BDA-B925-9C2C87D76699}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="43326627" y="15487960"/>
+            <a:ext cx="5583385" cy="12700"/>
+          </a:xfrm>
+          <a:prstGeom prst="bentConnector3">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 50000"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:ln w="76200">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="121" name="Connector: Elbow 120">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{442C1D7F-2B0B-4932-BAE9-9B36E17E7B82}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="43305845" y="16177224"/>
+            <a:ext cx="5583385" cy="12700"/>
+          </a:xfrm>
+          <a:prstGeom prst="bentConnector3">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 50000"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:ln w="76200">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="122" name="TextBox 121">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34B547CC-DA39-4CF1-94E5-AEEB6F674109}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="43537910" y="11876810"/>
+            <a:ext cx="1603663" cy="548369"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-MY" sz="2400" baseline="0"/>
+              <a:t>ten_pos</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-MY" sz="2400"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="123" name="TextBox 122">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38339AD6-0DE3-416F-BD67-45AAF26F5D1B}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="43586399" y="12687298"/>
+            <a:ext cx="2060864" cy="548369"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-MY" sz="2400" baseline="0"/>
+              <a:t>hundred_pos</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-MY" sz="2400"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="124" name="TextBox 123">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38B270C8-213C-4A32-B838-431173E99B3C}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="43479027" y="13393879"/>
+            <a:ext cx="2060864" cy="548369"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-MY" sz="2400" baseline="0"/>
+              <a:t>thousand_pos</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-MY" sz="2400"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="126" name="TextBox 125">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1447547E-8F36-48DA-AB47-25272444A21D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="43631427" y="14949052"/>
+            <a:ext cx="2660073" cy="548369"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-MY" sz="2400" baseline="0"/>
+              <a:t>ten_thousand_pos</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-MY" sz="2400"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="127" name="TextBox 126">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F079D5C-0034-43E4-9D77-8A36718AC200}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="43472099" y="15655634"/>
+            <a:ext cx="3359728" cy="548369"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-MY" sz="2400" baseline="0"/>
+              <a:t>hundred_thousand_pos</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-MY" sz="2400"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>404812</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="86" name="Straight Connector 85">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BFE396F-FE32-47E0-A19E-B78076CC1EFA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16287750" y="7620000"/>
+          <a:ext cx="2071687" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>404812</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>404812</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>103909</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="88" name="Straight Connector 87">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98AE5F37-6C91-4733-A70A-5D09FEAE911F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17982767" y="7572375"/>
+          <a:ext cx="0" cy="12343534"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>381001</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>23813</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>536864</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>23813</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="90" name="Straight Connector 89">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21A6E76C-49AF-4F87-B628-C92810852D40}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17958956" y="15454313"/>
+          <a:ext cx="11672453" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="Straight Arrow Connector 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1ADE6982-31CD-4DB7-8B7E-024A85A3262A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="30194250" y="13406437"/>
+          <a:ext cx="0" cy="2119313"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>279256</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>52883</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>245238</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>39276</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="108" name="Rectangle 107">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{609720CA-5FE9-4FE0-AD82-C15D4081D997}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
+        <xdr:cNvPr id="96" name="TextBox 95">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B0F3F02-249D-4C7A-957C-8DD23D35DC42}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="44362258" y="8592292"/>
-          <a:ext cx="1579542" cy="2790825"/>
+          <a:off x="29373801" y="13959383"/>
+          <a:ext cx="2390528" cy="557893"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-MY" sz="2800"/>
-            <a:t>7</a:t>
+            <a:rPr lang="en-MY" sz="2400" baseline="0"/>
+            <a:t>displ_sel[1:0]</a:t>
           </a:r>
-          <a:r>
-            <a:rPr lang="en-MY" sz="2800" baseline="0"/>
-            <a:t> segment </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-MY" sz="2800"/>
-            <a:t>digit</a:t>
-          </a:r>
+          <a:endParaRPr lang="en-MY" sz="2400"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -5070,43 +6079,411 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>64</xdr:col>
-      <xdr:colOff>17318</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>81705</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>73</xdr:col>
-      <xdr:colOff>114303</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>94405</xdr:rowOff>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>190502</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>86588</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>560552</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>62776</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="39" name="Group 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6812AF7A-60DC-4207-8213-6D31952F0577}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="26812877" y="19898588"/>
+          <a:ext cx="4703925" cy="3405188"/>
+          <a:chOff x="22756092" y="18617043"/>
+          <a:chExt cx="4006869" cy="3405188"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="98" name="Rectangle 97">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3659166F-0A22-421D-B78F-DF6B39E59548}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="22756092" y="18617043"/>
+            <a:ext cx="4006869" cy="3405188"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-MY" sz="2800"/>
+              <a:t>slide_switch_pulse_gen</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="2800"/>
+              <a:t>（</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-MY" altLang="zh-CN" sz="2800"/>
+              <a:t>enable_pulse_gen</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="2800"/>
+              <a:t>）</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-MY" sz="2800"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="101" name="Isosceles Triangle 100">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{749F8BDB-3AE7-4996-9AC6-A0EAB0F77467}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="5400000">
+            <a:off x="22795478" y="21175385"/>
+            <a:ext cx="574988" cy="653760"/>
+          </a:xfrm>
+          <a:prstGeom prst="triangle">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent4">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent4"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent4"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-MY" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>272142</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>144978</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>242455</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>144978</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="109" name="Connector: Elbow 108">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BF0AFB5-19E6-403E-A9EB-AD78B97B3D52}"/>
+        <xdr:cNvPr id="103" name="Straight Arrow Connector 102">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C060C182-F541-4089-9495-52F5A2ECF2AA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3302824" y="22052478"/>
+          <a:ext cx="19366676" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:srgbClr val="FF00FF"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>398317</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>51954</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>189509</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>51954</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="105" name="Straight Arrow Connector 104">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F25CA53-9B5C-415D-ADA2-0A57150FCD8B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17976272" y="19673454"/>
+          <a:ext cx="2215737" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>377535</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>65808</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>168727</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>65808</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="107" name="Straight Arrow Connector 106">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDAB2288-35DD-4D89-8ECE-77E18C49EA66}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17955490" y="19877808"/>
+          <a:ext cx="2215737" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>121227</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>155863</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>445638</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>3463</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="110" name="Picture 109">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{960894E6-D7A7-4045-9135-6216B3D89F27}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="20123727" y="19586863"/>
+          <a:ext cx="930547" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>445638</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>255318</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>174913</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="112" name="Straight Arrow Connector 111">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12EF3A9F-4AA8-4389-AC43-0E8BE802CF4E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:endCxn id="108" idx="1"/>
+          <a:stCxn id="110" idx="3"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="38810045" y="9987705"/>
-          <a:ext cx="5552213" cy="12700"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
+        <a:xfrm flipV="1">
+          <a:off x="21054274" y="19773899"/>
+          <a:ext cx="1628089" cy="22514"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
         </a:prstGeom>
         <a:ln w="76200">
           <a:solidFill>
-            <a:schemeClr val="tx1"/>
+            <a:srgbClr val="0070C0"/>
           </a:solidFill>
           <a:tailEnd type="triangle"/>
         </a:ln>
@@ -5130,73 +6507,131 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>73</xdr:col>
-      <xdr:colOff>162795</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>172192</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>75</xdr:col>
-      <xdr:colOff>530065</xdr:colOff>
-      <xdr:row>86</xdr:row>
-      <xdr:rowOff>105517</xdr:rowOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>329045</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>121227</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>295028</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>107620</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="111" name="Rectangle 110">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2619EDF5-AC71-46FA-BC45-3C5509C06714}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
+        <xdr:cNvPr id="125" name="TextBox 124">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BDA8DBC-DACA-46AB-9EF0-A58D938CA10B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="44410750" y="13697692"/>
-          <a:ext cx="1579542" cy="2790825"/>
+          <a:off x="17907000" y="19171227"/>
+          <a:ext cx="2390528" cy="557893"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-MY" sz="2800"/>
-            <a:t>7</a:t>
+            <a:rPr lang="en-MY" sz="2400" baseline="0"/>
+            <a:t>displ_sel[1]</a:t>
           </a:r>
-          <a:r>
-            <a:rPr lang="en-MY" sz="2800" baseline="0"/>
-            <a:t> segment </a:t>
-          </a:r>
+          <a:endParaRPr lang="en-MY" sz="2400"/>
         </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>294409</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>86591</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>260392</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>72984</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="128" name="TextBox 127">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E87891D-090A-42A1-B9D8-F9A1F3379136}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17872364" y="19898591"/>
+          <a:ext cx="2390528" cy="557893"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-MY" sz="2800"/>
-            <a:t>digit</a:t>
+            <a:rPr lang="en-MY" sz="2400" baseline="0"/>
+            <a:t>displ_sel[0]</a:t>
           </a:r>
+          <a:endParaRPr lang="en-MY" sz="2400"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -5204,59 +6639,65 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>74</xdr:col>
-      <xdr:colOff>86591</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>34636</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>74</xdr:col>
-      <xdr:colOff>450273</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>17318</xdr:rowOff>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>602673</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>169718</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>568656</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>156111</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="113" name="Oval 112">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F7AF56B-3893-49D0-84CB-9EFCD572ED2A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
+        <xdr:cNvPr id="129" name="TextBox 128">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A509C2B1-E856-45B5-87DC-805CA7F6A1C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="44940682" y="11845636"/>
-          <a:ext cx="363682" cy="363682"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
+          <a:off x="20605173" y="19219718"/>
+          <a:ext cx="2390528" cy="557893"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
           <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-MY" sz="1100"/>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-MY" sz="2400" baseline="0"/>
+            <a:t>enable</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-MY" sz="2400"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -5264,59 +6705,65 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>74</xdr:col>
-      <xdr:colOff>83128</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>13854</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>74</xdr:col>
-      <xdr:colOff>446810</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>187036</xdr:rowOff>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>218209</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>96982</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>184192</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>83375</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="114" name="Oval 113">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB114DEC-FA6B-48DF-9FC4-DE84AE8871F7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
+        <xdr:cNvPr id="130" name="TextBox 129">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F080852-1EA4-4AE6-BEA2-72738340C267}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="44937219" y="12396354"/>
-          <a:ext cx="363682" cy="363682"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
+          <a:off x="26888209" y="19908982"/>
+          <a:ext cx="2390528" cy="557893"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
           <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-MY" sz="1100"/>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-MY" sz="2400" baseline="0"/>
+            <a:t>enable_pulse</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-MY" sz="2400"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -5324,83 +6771,575 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>74</xdr:col>
-      <xdr:colOff>62346</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>148936</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>74</xdr:col>
-      <xdr:colOff>426028</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>131618</xdr:rowOff>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>554181</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>121227</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>408214</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>121227</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="131" name="Straight Connector 130">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{335812CF-E1E3-42E7-B931-927CA2BB8278}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="26884002" y="20504727"/>
+          <a:ext cx="3527962" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>45027</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>45027</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="132" name="Straight Connector 131">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9215E75-8956-427F-88E9-C0548F101C7B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19202400" y="16809027"/>
+          <a:ext cx="11049000" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>374196</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="133" name="Straight Arrow Connector 132">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E07CE028-9E2E-42ED-AF5B-36644467722A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19126200" y="8267700"/>
+          <a:ext cx="1364796" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="134" name="Straight Connector 133">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05409334-AD33-4209-AA42-0A8FF048AF9C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19164300" y="8305800"/>
+          <a:ext cx="0" cy="8534400"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="135" name="Straight Connector 134">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EEBD788-6185-4DE1-91D8-7404EA234A64}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="30251400" y="16764000"/>
+          <a:ext cx="0" cy="3810000"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>547687</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>36735</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>36735</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="136" name="Straight Connector 135">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E7650BD-D007-4411-BA3C-3F4ABE2D67EE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11691937" y="2322735"/>
+          <a:ext cx="13596938" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>584427</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>584427</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="137" name="Straight Connector 136">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3329B7DC-3069-41A5-877C-A9CAE7CF23A1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11728677" y="2343149"/>
+          <a:ext cx="0" cy="1776413"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>546327</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>546327</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="138" name="Straight Connector 137">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8ABB0178-2C68-47F7-99F8-076560BCC335}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25311327" y="2305049"/>
+          <a:ext cx="0" cy="1776413"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>595312</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>109532</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>538163</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>109532</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="139" name="Straight Arrow Connector 138">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE06E86A-9039-4C50-9E58-B0C6BF5F8515}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11739562" y="4110032"/>
+          <a:ext cx="1181101" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>547688</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>71438</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>71438</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="140" name="Straight Connector 139">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{183307FC-E153-483D-B5A4-8681050D6A58}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="24693563" y="4071938"/>
+          <a:ext cx="690562" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>203425</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>63953</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>298675</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>40822</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="115" name="Oval 114">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7764723-0A56-4E91-B041-FAFE8F46559F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="44916437" y="12912436"/>
-          <a:ext cx="363682" cy="363682"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-MY" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>64</xdr:col>
-      <xdr:colOff>259774</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>173182</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>67</xdr:col>
-      <xdr:colOff>34637</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>150051</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="116" name="TextBox 115">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7399FD0F-1192-4676-A15A-196584DF8CBA}"/>
+        <xdr:cNvPr id="141" name="TextBox 140">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{775DCE7F-F073-472F-86DB-EFE07F018C9A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5408,8 +7347,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="39052501" y="9507682"/>
-          <a:ext cx="1593272" cy="548369"/>
+          <a:off x="19396300" y="1778453"/>
+          <a:ext cx="1333500" cy="548369"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5440,7 +7379,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-MY" sz="2400" baseline="0"/>
-            <a:t>digit_pos</a:t>
+            <a:t>wire_res</a:t>
           </a:r>
           <a:endParaRPr lang="en-MY" sz="2400"/>
         </a:p>
@@ -5450,23 +7389,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>63</xdr:col>
-      <xdr:colOff>568035</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>182151</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>73</xdr:col>
-      <xdr:colOff>58884</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>4351</xdr:rowOff>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>8164</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>8164</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="117" name="Connector: Elbow 116">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19835408-7DE6-4BCB-8A4E-F6414E9F866E}"/>
+        <xdr:cNvPr id="144" name="Straight Connector 143">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54FA2AA2-4BFF-4AEF-B0CC-E682B71B943D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5474,17 +7413,180 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="38754626" y="11612151"/>
-          <a:ext cx="5552213" cy="12700"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
+          <a:off x="30345289" y="1571625"/>
+          <a:ext cx="0" cy="4119562"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
         </a:prstGeom>
         <a:ln w="76200">
           <a:solidFill>
-            <a:schemeClr val="tx1"/>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>70072</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>70072</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="146" name="Straight Connector 145">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F24349C1-8EE5-4B59-8679-4730606E9D8A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11334750" y="1594072"/>
+          <a:ext cx="19002375" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>212952</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>212952</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="148" name="Straight Connector 147">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65642629-298C-4D30-BD02-24B321EAB8F9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11357202" y="1590674"/>
+          <a:ext cx="0" cy="3243263"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>214312</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>561976</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="150" name="Straight Arrow Connector 149">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FC1CD0E-8F7C-41D9-871D-091732945E62}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11358562" y="4762500"/>
+          <a:ext cx="1585914" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
           </a:solidFill>
           <a:tailEnd type="triangle"/>
         </a:ln>
@@ -5508,255 +7610,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>64</xdr:col>
-      <xdr:colOff>13855</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>43603</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>73</xdr:col>
-      <xdr:colOff>110840</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>56303</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="118" name="Connector: Elbow 117">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DB6CAE0-FE5E-4C18-B406-2609B9A773D8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="38806582" y="12426103"/>
-          <a:ext cx="5552213" cy="12700"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln w="76200">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>63</xdr:col>
-      <xdr:colOff>599209</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>161369</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>73</xdr:col>
-      <xdr:colOff>90058</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>174069</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="119" name="Connector: Elbow 118">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E55D318-2CC9-46B7-8945-B04FFDE2CD23}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="38785800" y="13115369"/>
-          <a:ext cx="5552213" cy="12700"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln w="76200">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>64</xdr:col>
-      <xdr:colOff>45027</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>57460</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>73</xdr:col>
-      <xdr:colOff>142012</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>70160</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="120" name="Connector: Elbow 119">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E5666D9-87BE-4BDA-B925-9C2C87D76699}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="38837754" y="14725960"/>
-          <a:ext cx="5552213" cy="12700"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln w="76200">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>64</xdr:col>
-      <xdr:colOff>24245</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>175224</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>73</xdr:col>
-      <xdr:colOff>121230</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>187924</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="121" name="Connector: Elbow 120">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{442C1D7F-2B0B-4932-BAE9-9B36E17E7B82}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="38816972" y="15415224"/>
-          <a:ext cx="5552213" cy="12700"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln w="76200">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>64</xdr:col>
-      <xdr:colOff>256310</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>65810</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>67</xdr:col>
-      <xdr:colOff>31173</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>42679</xdr:rowOff>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>260575</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>144915</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="122" name="TextBox 121">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34B547CC-DA39-4CF1-94E5-AEEB6F674109}"/>
+        <xdr:cNvPr id="153" name="TextBox 152">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1CDF1F8-7951-4EB7-8E43-D4A1C7965A02}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5764,8 +7634,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="39049037" y="11114810"/>
-          <a:ext cx="1593272" cy="548369"/>
+          <a:off x="21310825" y="1097415"/>
+          <a:ext cx="3692300" cy="688522"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5796,7 +7666,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-MY" sz="2400" baseline="0"/>
-            <a:t>ten_pos</a:t>
+            <a:t>wire_sign_from_calculate</a:t>
           </a:r>
           <a:endParaRPr lang="en-MY" sz="2400"/>
         </a:p>
@@ -5806,23 +7676,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>64</xdr:col>
-      <xdr:colOff>304799</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>114298</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>67</xdr:col>
-      <xdr:colOff>536863</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>91167</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>465364</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>135390</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>560614</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>112259</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="123" name="TextBox 122">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38339AD6-0DE3-416F-BD67-45AAF26F5D1B}"/>
+        <xdr:cNvPr id="154" name="TextBox 153">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF2248F8-B6AE-4542-9D42-E1476F5F2F0D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5830,8 +7700,196 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="39097526" y="11925298"/>
-          <a:ext cx="2050473" cy="548369"/>
+          <a:off x="16562614" y="3564390"/>
+          <a:ext cx="1333500" cy="548369"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2400" baseline="0"/>
+            <a:t>S1</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-MY" sz="2400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>417739</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>144915</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>522514</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>121784</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="155" name="TextBox 154">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAD35BFB-0533-4183-9600-FBF8B1A073E7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16514989" y="4526415"/>
+          <a:ext cx="1343025" cy="548369"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2400" baseline="0"/>
+            <a:t>S2</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-MY" sz="2400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>223837</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>23807</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>23807</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="156" name="Straight Arrow Connector 155">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0318F76-4314-49DA-BEB8-DAADEBE66CDE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16321087" y="5738807"/>
+          <a:ext cx="4443413" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>341538</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>178252</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="158" name="TextBox 157">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CDA754C-C1C1-4871-A7EF-0FFD518BBB4C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16438788" y="5131252"/>
+          <a:ext cx="4325712" cy="688522"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5862,7 +7920,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-MY" sz="2400" baseline="0"/>
-            <a:t>hundred_pos</a:t>
+            <a:t>wire_sign_from_state_controller</a:t>
           </a:r>
           <a:endParaRPr lang="en-MY" sz="2400"/>
         </a:p>
@@ -5872,23 +7930,134 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>64</xdr:col>
-      <xdr:colOff>197427</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>58879</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>67</xdr:col>
-      <xdr:colOff>429491</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>35748</xdr:rowOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>300903</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>97414</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>300903</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>190190</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="160" name="Straight Connector 159">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0A7ACF1-32DD-4EC0-8F2C-7F9FC99FA6DA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20732028" y="10193914"/>
+          <a:ext cx="0" cy="6188776"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>141700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>205900</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>141700</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="161" name="Straight Arrow Connector 160">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F760EC2-BB41-491D-AD53-E53284399366}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20345400" y="10238200"/>
+          <a:ext cx="3634900" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>357187</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="124" name="TextBox 123">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38B270C8-213C-4A32-B838-431173E99B3C}"/>
+        <xdr:cNvPr id="163" name="TextBox 162">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5F3AC5D-0EF1-49F2-AE89-F5135148A75C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5896,8 +8065,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="38990154" y="12631879"/>
-          <a:ext cx="2050473" cy="548369"/>
+          <a:off x="19002375" y="6238875"/>
+          <a:ext cx="2405062" cy="752475"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5928,7 +8097,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-MY" sz="2400" baseline="0"/>
-            <a:t>thousand_pos</a:t>
+            <a:t>slide switch[1:0]</a:t>
           </a:r>
           <a:endParaRPr lang="en-MY" sz="2400"/>
         </a:p>
@@ -5938,23 +8107,191 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>318220</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="164" name="Straight Arrow Connector 163">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C044805B-119E-49DD-AD0D-967F35C71D89}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21383625" y="6643687"/>
+          <a:ext cx="3080470" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>578304</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>64</xdr:col>
-      <xdr:colOff>349827</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>90052</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>68</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>66921</xdr:rowOff>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="172" name="Straight Arrow Connector 171">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1D71815-9890-4BFC-A433-7F62DC1E573D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="28438929" y="5657850"/>
+          <a:ext cx="11689896" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>540204</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>64</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="178" name="Straight Arrow Connector 177">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4657BD71-62B3-4200-B903-42609D5EA064}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="28400829" y="6905625"/>
+          <a:ext cx="11689896" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>357187</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>91848</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>323169</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>78241</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="126" name="TextBox 125">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1447547E-8F36-48DA-AB47-25272444A21D}"/>
+        <xdr:cNvPr id="179" name="TextBox 178">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11D91D11-8605-425E-B0C2-B52C19D60F5E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5962,8 +8299,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="39142554" y="14187052"/>
-          <a:ext cx="2646219" cy="548369"/>
+          <a:off x="28217812" y="6378348"/>
+          <a:ext cx="2442482" cy="557893"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5988,79 +8325,13 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-MY" sz="2400" baseline="0"/>
-            <a:t>ten_thousand_pos</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-MY" sz="2400"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>64</xdr:col>
-      <xdr:colOff>190499</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>34634</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>69</xdr:col>
-      <xdr:colOff>502227</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>11503</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="127" name="TextBox 126">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F079D5C-0034-43E4-9D77-8A36718AC200}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="38983226" y="14893634"/>
-          <a:ext cx="3342410" cy="548369"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-MY" sz="2400" baseline="0"/>
-            <a:t>hundred_thousand_pos</a:t>
+            <a:t>wire_err</a:t>
           </a:r>
           <a:endParaRPr lang="en-MY" sz="2400"/>
         </a:p>
@@ -6370,7 +8641,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33404A68-2D35-4971-8A15-DB25450B44DE}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="F25" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F16" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="V48" sqref="V48"/>
     </sheetView>
   </sheetViews>
@@ -6383,28 +8654,34 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBAD0459-C79B-4CEC-AD99-22263EAF2CD9}">
-  <dimension ref="AA83:AM83"/>
+  <dimension ref="AA87:AS87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="BB72" sqref="BB72"/>
+    <sheetView topLeftCell="A4" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="AT77" sqref="AT77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="83" spans="27:39" x14ac:dyDescent="0.25">
-      <c r="AA83" s="1"/>
-      <c r="AB83" s="1"/>
-      <c r="AC83" s="1"/>
-      <c r="AD83" s="1"/>
-      <c r="AE83" s="1"/>
-      <c r="AF83" s="1"/>
-      <c r="AG83" s="1"/>
-      <c r="AH83" s="1"/>
-      <c r="AI83" s="1"/>
-      <c r="AJ83" s="1"/>
-      <c r="AK83" s="1"/>
-      <c r="AL83" s="1"/>
-      <c r="AM83" s="1"/>
+    <row r="87" spans="27:45" x14ac:dyDescent="0.25">
+      <c r="AA87" s="1"/>
+      <c r="AB87" s="1"/>
+      <c r="AC87" s="1"/>
+      <c r="AD87" s="1"/>
+      <c r="AE87" s="1"/>
+      <c r="AF87" s="1"/>
+      <c r="AG87" s="1"/>
+      <c r="AH87" s="1"/>
+      <c r="AI87" s="1"/>
+      <c r="AJ87" s="1"/>
+      <c r="AK87" s="1"/>
+      <c r="AL87" s="1"/>
+      <c r="AM87" s="1"/>
+      <c r="AN87" s="1"/>
+      <c r="AO87" s="1"/>
+      <c r="AP87" s="1"/>
+      <c r="AQ87" s="1"/>
+      <c r="AR87" s="1"/>
+      <c r="AS87" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Project - Basic_calculator/Basic calculator.xlsx
+++ b/Project - Basic_calculator/Basic calculator.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\intelFPGA_lite\18.1\Digital-Clock\Project - Basic_calculator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{576FD536-6EA5-4024-8C28-1368BB56DE46}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D355CA5D-CB6A-47E5-B95C-838947723A1D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" xr2:uid="{E96232D1-EBEC-446B-8C68-089EF9F142DF}"/>
   </bookViews>
@@ -521,88 +521,6 @@
             <a:rPr lang="en-MY" sz="1100" baseline="0"/>
             <a:t>one</a:t>
           </a:r>
-          <a:endParaRPr lang="en-MY" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>93196</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>97919</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>150469</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>157451</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="Speech Bubble: Rectangle 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F52702B4-E9F2-4E64-86B1-4A870186932B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7424162" y="3336419"/>
-          <a:ext cx="1890014" cy="1012032"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 79888"/>
-            <a:gd name="adj2" fmla="val 275735"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-MY" sz="1100"/>
-            <a:t>equal</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-MY" sz="1100"/>
-            <a:t>during this slide switch was on,</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-MY" sz="1100" baseline="0"/>
-            <a:t> press the button 1 will generate result</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-MY" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
           <a:endParaRPr lang="en-MY" sz="1100"/>
         </a:p>
       </xdr:txBody>
@@ -1207,6 +1125,224 @@
       <xdr:txBody>
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-MY" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>137948</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>59121</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>164224</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Rectangle 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADE27B1A-FE45-426C-8852-CFC7C5A592F3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9544707" y="6424448"/>
+          <a:ext cx="899948" cy="216776"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:srgbClr val="FF00FF"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-MY" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>605576</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>45368</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>51934</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>104900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Speech Bubble: Rectangle 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F52702B4-E9F2-4E64-86B1-4A870186932B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5492886" y="2521868"/>
+          <a:ext cx="1890014" cy="1012032"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 182419"/>
+            <a:gd name="adj2" fmla="val 368554"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1100"/>
+            <a:t>equal</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1100"/>
+            <a:t>during this slide switch was on,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1100" baseline="0"/>
+            <a:t> press the button 1 will generate result</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-MY" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-MY" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>14451</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>1312</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>68029</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>60844</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="Speech Bubble: Rectangle 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE8344AF-0FB4-488F-B0DF-1B7F1E8107C5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12843641" y="4954312"/>
+          <a:ext cx="1886319" cy="1012032"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -176442"/>
+            <a:gd name="adj2" fmla="val 103443"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1100"/>
+            <a:t>State indicator</a:t>
+          </a:r>
+        </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:endParaRPr lang="en-MY" sz="1100"/>
@@ -8641,8 +8777,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33404A68-2D35-4971-8A15-DB25450B44DE}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F16" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="V48" sqref="V48"/>
+    <sheetView tabSelected="1" topLeftCell="F19" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="V35" sqref="V35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
